--- a/data/trans_orig/P37C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{009C1EAC-FD45-4844-BF8A-CB67BAF81D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56706BEC-90BB-47CB-8D4F-46AA62FCCF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5978E0F9-7C02-4DF0-A529-89DC7DBB55A3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73CABEDA-8E5D-46EC-9B02-F9568D9DF9DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="261">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>7,64%</t>
+    <t>7,08%</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -104,7 +104,7 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>3,36%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -113,676 +113,709 @@
     <t>3,83%</t>
   </si>
   <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
   </si>
   <si>
     <t>71,02%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>73,02%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1197,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B919CEC-42CA-43AD-8192-C7B67B24F785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1792F98A-3274-4CE9-A5E5-1D11052E9660}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1713,10 +1746,10 @@
         <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,13 +1764,13 @@
         <v>32040</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -1746,13 +1779,13 @@
         <v>20999</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -1761,13 +1794,13 @@
         <v>53040</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1815,13 @@
         <v>110017</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -1797,28 +1830,28 @@
         <v>103942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>324</v>
       </c>
       <c r="N13" s="7">
-        <v>213959</v>
+        <v>213958</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,13 +1866,13 @@
         <v>397741</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>750</v>
@@ -1848,28 +1881,28 @@
         <v>459465</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>1190</v>
       </c>
       <c r="N14" s="7">
-        <v>857206</v>
+        <v>857205</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,7 +1944,7 @@
         <v>1596</v>
       </c>
       <c r="N15" s="7">
-        <v>1134225</v>
+        <v>1134224</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>53</v>
@@ -1925,7 +1958,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1937,13 +1970,13 @@
         <v>5389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1952,13 +1985,13 @@
         <v>2184</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1967,10 +2000,10 @@
         <v>7573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>103</v>
@@ -2024,7 +2057,7 @@
         <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,13 +2072,13 @@
         <v>58885</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -2054,13 +2087,13 @@
         <v>37611</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>114</v>
@@ -2069,13 +2102,13 @@
         <v>96496</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,13 +2123,13 @@
         <v>217922</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>368</v>
@@ -2105,13 +2138,13 @@
         <v>234405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>584</v>
@@ -2120,13 +2153,13 @@
         <v>452327</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2174,13 @@
         <v>737111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>1071</v>
@@ -2156,13 +2189,13 @@
         <v>772267</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>1738</v>
@@ -2171,13 +2204,13 @@
         <v>1509379</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,7 +2266,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2245,13 +2278,13 @@
         <v>3318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2263,10 +2296,10 @@
         <v>55</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2275,13 +2308,13 @@
         <v>6085</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2329,13 @@
         <v>5893</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2314,10 +2347,10 @@
         <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -2326,13 +2359,13 @@
         <v>10627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2380,13 @@
         <v>47689</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -2362,13 +2395,13 @@
         <v>31955</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>80</v>
@@ -2377,13 +2410,13 @@
         <v>79644</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2431,13 @@
         <v>216403</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>233</v>
@@ -2413,13 +2446,13 @@
         <v>165298</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>423</v>
@@ -2428,13 +2461,13 @@
         <v>381701</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2482,13 @@
         <v>452366</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>755</v>
@@ -2464,13 +2497,13 @@
         <v>665944</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>1186</v>
@@ -2479,13 +2512,13 @@
         <v>1118310</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,7 +2574,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2553,13 +2586,13 @@
         <v>3323</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -2571,10 +2604,10 @@
         <v>56</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -2583,13 +2616,13 @@
         <v>8504</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2637,13 @@
         <v>14469</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2619,13 +2652,13 @@
         <v>6502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -2634,13 +2667,13 @@
         <v>20971</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2688,13 @@
         <v>53557</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -2670,13 +2703,13 @@
         <v>75884</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>137</v>
@@ -2685,13 +2718,13 @@
         <v>129441</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2739,13 @@
         <v>163365</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>284</v>
@@ -2721,13 +2754,13 @@
         <v>221262</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>456</v>
@@ -2736,13 +2769,13 @@
         <v>384627</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2790,13 @@
         <v>723151</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>1164</v>
@@ -2772,13 +2805,13 @@
         <v>829969</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>1927</v>
@@ -2787,13 +2820,13 @@
         <v>1553120</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2894,13 @@
         <v>12031</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -2876,13 +2909,13 @@
         <v>12767</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -2891,13 +2924,13 @@
         <v>24798</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2945,13 @@
         <v>38945</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H35" s="7">
         <v>30</v>
@@ -2927,13 +2960,13 @@
         <v>21977</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="M35" s="7">
         <v>73</v>
@@ -2942,13 +2975,13 @@
         <v>60922</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2996,13 @@
         <v>195992</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>227</v>
@@ -2978,13 +3011,13 @@
         <v>168934</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>410</v>
@@ -2993,13 +3026,13 @@
         <v>364925</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3047,13 @@
         <v>726527</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>1138</v>
@@ -3029,13 +3062,13 @@
         <v>749876</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>1867</v>
@@ -3044,13 +3077,13 @@
         <v>1476403</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3098,13 @@
         <v>2385155</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>3918</v>
@@ -3080,13 +3113,13 @@
         <v>2828922</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>245</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>6302</v>
@@ -3095,13 +3128,13 @@
         <v>5214077</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,7 +3190,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56706BEC-90BB-47CB-8D4F-46AA62FCCF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1235E700-C09E-4EA9-86E1-7101A13FB08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73CABEDA-8E5D-46EC-9B02-F9568D9DF9DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC817E30-A833-41BC-A798-B187C6D8170A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Totalmente en desacuerdo</t>
@@ -200,7 +200,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -329,7 +329,7 @@
     <t>77,95%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -458,7 +458,7 @@
     <t>75,18%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -1230,7 +1230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1792F98A-3274-4CE9-A5E5-1D11052E9660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCCA73E-7803-40F5-B44B-3A8A23211127}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1235E700-C09E-4EA9-86E1-7101A13FB08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF8B859-22FD-4F18-82E4-B4C8AE32FFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC817E30-A833-41BC-A798-B187C6D8170A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{082DC71D-92B2-4353-9E0D-0C58825434C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="250">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>7,08%</t>
+    <t>7,64%</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -104,7 +104,7 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -113,28 +113,28 @@
     <t>3,83%</t>
   </si>
   <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>5,33%</t>
   </si>
   <si>
     <t>Bastante de acuerdo</t>
@@ -143,28 +143,28 @@
     <t>18,86%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>19,4%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>Totalmente de acuerdo</t>
@@ -173,28 +173,28 @@
     <t>74,94%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>78,67%</t>
   </si>
   <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>77,04%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -209,544 +209,511 @@
     <t>0,45%</t>
   </si>
   <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>0,62%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>4,47%</t>
@@ -755,67 +722,67 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>71,02%</t>
   </si>
   <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>73,02%</t>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1230,7 +1197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCCA73E-7803-40F5-B44B-3A8A23211127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25DD92-6F10-4F2E-8E93-A7A178C8EEA2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1746,10 +1713,10 @@
         <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1731,13 @@
         <v>32040</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -1779,13 +1746,13 @@
         <v>20999</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -1794,13 +1761,13 @@
         <v>53040</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,13 +1782,13 @@
         <v>110017</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -1830,28 +1797,28 @@
         <v>103942</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>324</v>
       </c>
       <c r="N13" s="7">
-        <v>213958</v>
+        <v>213959</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,13 +1833,13 @@
         <v>397741</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>750</v>
@@ -1881,28 +1848,28 @@
         <v>459465</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>1190</v>
       </c>
       <c r="N14" s="7">
-        <v>857205</v>
+        <v>857206</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,7 +1911,7 @@
         <v>1596</v>
       </c>
       <c r="N15" s="7">
-        <v>1134224</v>
+        <v>1134225</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>53</v>
@@ -1958,7 +1925,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1970,13 +1937,13 @@
         <v>5389</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1985,13 +1952,13 @@
         <v>2184</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2000,10 +1967,10 @@
         <v>7573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>103</v>
@@ -2057,7 +2024,7 @@
         <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2039,13 @@
         <v>58885</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -2087,13 +2054,13 @@
         <v>37611</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>114</v>
@@ -2102,13 +2069,13 @@
         <v>96496</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2090,13 @@
         <v>217922</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>368</v>
@@ -2138,13 +2105,13 @@
         <v>234405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>584</v>
@@ -2153,13 +2120,13 @@
         <v>452327</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2141,13 @@
         <v>737111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>1071</v>
@@ -2189,13 +2156,13 @@
         <v>772267</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>1738</v>
@@ -2204,13 +2171,13 @@
         <v>1509379</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,7 +2233,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2278,13 +2245,13 @@
         <v>3318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2296,10 +2263,10 @@
         <v>55</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2308,13 +2275,13 @@
         <v>6085</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2296,13 @@
         <v>5893</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2347,10 +2314,10 @@
         <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -2359,13 +2326,13 @@
         <v>10627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2347,13 @@
         <v>47689</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -2395,13 +2362,13 @@
         <v>31955</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>80</v>
@@ -2410,13 +2377,13 @@
         <v>79644</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2398,13 @@
         <v>216403</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>233</v>
@@ -2446,13 +2413,13 @@
         <v>165298</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>423</v>
@@ -2461,13 +2428,13 @@
         <v>381701</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2449,13 @@
         <v>452366</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>755</v>
@@ -2497,13 +2464,13 @@
         <v>665944</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1186</v>
@@ -2512,13 +2479,13 @@
         <v>1118310</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,7 +2541,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2586,13 +2553,13 @@
         <v>3323</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -2604,10 +2571,10 @@
         <v>56</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -2616,13 +2583,13 @@
         <v>8504</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2604,13 @@
         <v>14469</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2652,13 +2619,13 @@
         <v>6502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -2667,13 +2634,13 @@
         <v>20971</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2655,13 @@
         <v>53557</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -2703,13 +2670,13 @@
         <v>75884</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>137</v>
@@ -2718,13 +2685,13 @@
         <v>129441</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2706,13 @@
         <v>163365</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>284</v>
@@ -2754,13 +2721,13 @@
         <v>221262</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
         <v>456</v>
@@ -2769,13 +2736,13 @@
         <v>384627</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2757,13 @@
         <v>723151</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>1164</v>
@@ -2805,13 +2772,13 @@
         <v>829969</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>1927</v>
@@ -2820,13 +2787,13 @@
         <v>1553120</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2861,13 @@
         <v>12031</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -2909,13 +2876,13 @@
         <v>12767</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -2924,13 +2891,13 @@
         <v>24798</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2912,13 @@
         <v>38945</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7">
         <v>30</v>
@@ -2960,13 +2927,13 @@
         <v>21977</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="M35" s="7">
         <v>73</v>
@@ -2975,13 +2942,13 @@
         <v>60922</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2963,13 @@
         <v>195992</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H36" s="7">
         <v>227</v>
@@ -3011,13 +2978,13 @@
         <v>168934</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="M36" s="7">
         <v>410</v>
@@ -3026,13 +2993,13 @@
         <v>364925</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3014,13 @@
         <v>726527</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>1138</v>
@@ -3062,13 +3029,13 @@
         <v>749876</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>1867</v>
@@ -3077,13 +3044,13 @@
         <v>1476403</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3065,13 @@
         <v>2385155</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>3918</v>
@@ -3113,13 +3080,13 @@
         <v>2828922</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="M38" s="7">
         <v>6302</v>
@@ -3128,13 +3095,13 @@
         <v>5214077</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,7 +3157,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF8B859-22FD-4F18-82E4-B4C8AE32FFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95B63D08-45AD-4E54-A337-11919C91C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{082DC71D-92B2-4353-9E0D-0C58825434C8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D6F46764-694B-4B25-BE7D-6DF1DF04CFB8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="222">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Totalmente en desacuerdo</t>
@@ -77,712 +77,628 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1197,8 +1113,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25DD92-6F10-4F2E-8E93-A7A178C8EEA2}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079E0597-52E5-433C-A29E-CA2B322F8990}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1330,238 +1246,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2579</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2579</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>2367</v>
+        <v>6748</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2537</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="7">
         <v>14</v>
       </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
       <c r="N5" s="7">
-        <v>2367</v>
+        <v>9286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7">
-        <v>3820</v>
+        <v>32666</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I6" s="7">
-        <v>2484</v>
+        <v>21863</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="N6" s="7">
-        <v>6305</v>
+        <v>54529</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="D7" s="7">
-        <v>18820</v>
+        <v>119482</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="I7" s="7">
-        <v>24970</v>
+        <v>118456</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="N7" s="7">
-        <v>43790</v>
+        <v>237937</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>523</v>
       </c>
       <c r="D8" s="7">
-        <v>74786</v>
+        <v>469482</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
-        <v>178</v>
+        <v>928</v>
       </c>
       <c r="I8" s="7">
-        <v>101277</v>
+        <v>525332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
-        <v>261</v>
+        <v>1451</v>
       </c>
       <c r="N8" s="7">
-        <v>176063</v>
+        <v>994814</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,306 +1486,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>116</v>
+        <v>722</v>
       </c>
       <c r="D9" s="7">
-        <v>99793</v>
+        <v>628378</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
-        <v>239</v>
+        <v>1229</v>
       </c>
       <c r="I9" s="7">
-        <v>128732</v>
+        <v>670768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
-        <v>355</v>
+        <v>1951</v>
       </c>
       <c r="N9" s="7">
-        <v>228525</v>
+        <v>1299145</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>5484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2637</v>
+        <v>2011</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>2637</v>
+        <v>7495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>4760</v>
+        <v>10515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>2624</v>
+        <v>7105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>7384</v>
+        <v>17619</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>32040</v>
+        <v>55161</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I12" s="7">
-        <v>20999</v>
+        <v>34736</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="N12" s="7">
-        <v>53040</v>
+        <v>89897</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="D13" s="7">
-        <v>110017</v>
+        <v>208569</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
-        <v>198</v>
+        <v>368</v>
       </c>
       <c r="I13" s="7">
-        <v>103942</v>
+        <v>211186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
-        <v>324</v>
+        <v>584</v>
       </c>
       <c r="N13" s="7">
-        <v>213959</v>
+        <v>419755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>440</v>
+        <v>667</v>
       </c>
       <c r="D14" s="7">
-        <v>397741</v>
+        <v>905216</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
-        <v>750</v>
+        <v>1071</v>
       </c>
       <c r="I14" s="7">
-        <v>459465</v>
+        <v>698530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
-        <v>1190</v>
+        <v>1738</v>
       </c>
       <c r="N14" s="7">
-        <v>857206</v>
+        <v>1603746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,306 +1794,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>606</v>
+        <v>957</v>
       </c>
       <c r="D15" s="7">
-        <v>544558</v>
+        <v>1184944</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>990</v>
+        <v>1509</v>
       </c>
       <c r="I15" s="7">
-        <v>589667</v>
+        <v>953568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>1596</v>
+        <v>2466</v>
       </c>
       <c r="N15" s="7">
-        <v>1134225</v>
+        <v>2138512</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3324</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
-        <v>5389</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
       <c r="I16" s="7">
-        <v>2184</v>
+        <v>2503</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>7573</v>
+        <v>5827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>11456</v>
+        <v>5737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>8117</v>
+        <v>4351</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N17" s="7">
-        <v>19573</v>
+        <v>10087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7">
-        <v>58885</v>
+        <v>46341</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I18" s="7">
-        <v>37611</v>
+        <v>29927</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="N18" s="7">
-        <v>96496</v>
+        <v>76268</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D19" s="7">
-        <v>217922</v>
+        <v>207389</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="I19" s="7">
-        <v>234405</v>
+        <v>149565</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>584</v>
+        <v>423</v>
       </c>
       <c r="N19" s="7">
-        <v>452327</v>
+        <v>356954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>667</v>
+        <v>431</v>
       </c>
       <c r="D20" s="7">
-        <v>737111</v>
+        <v>438852</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>1071</v>
+        <v>755</v>
       </c>
       <c r="I20" s="7">
-        <v>772267</v>
+        <v>743686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>1738</v>
+        <v>1186</v>
       </c>
       <c r="N20" s="7">
-        <v>1509379</v>
+        <v>1182538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,306 +2102,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>957</v>
+        <v>671</v>
       </c>
       <c r="D21" s="7">
-        <v>1030763</v>
+        <v>701643</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>1509</v>
+        <v>1040</v>
       </c>
       <c r="I21" s="7">
-        <v>1054584</v>
+        <v>930032</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>2466</v>
+        <v>1711</v>
       </c>
       <c r="N21" s="7">
-        <v>2085348</v>
+        <v>1631675</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>3318</v>
+        <v>3248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>2766</v>
+        <v>4854</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>6085</v>
+        <v>8102</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7">
+        <v>14186</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="7">
         <v>8</v>
       </c>
-      <c r="D23" s="7">
-        <v>5893</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="7">
-        <v>7</v>
-      </c>
       <c r="I23" s="7">
-        <v>4734</v>
+        <v>5959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="M23" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N23" s="7">
-        <v>10627</v>
+        <v>20145</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7">
-        <v>47689</v>
+        <v>50451</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="I24" s="7">
-        <v>31955</v>
+        <v>66405</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="N24" s="7">
-        <v>79644</v>
+        <v>116856</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D25" s="7">
-        <v>216403</v>
+        <v>150213</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="I25" s="7">
-        <v>165298</v>
+        <v>252119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="N25" s="7">
-        <v>381701</v>
+        <v>402332</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>431</v>
+        <v>763</v>
       </c>
       <c r="D26" s="7">
-        <v>452366</v>
+        <v>701382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
-        <v>755</v>
+        <v>1164</v>
       </c>
       <c r="I26" s="7">
-        <v>665944</v>
+        <v>754801</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
-        <v>1186</v>
+        <v>1927</v>
       </c>
       <c r="N26" s="7">
-        <v>1118310</v>
+        <v>1456183</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,306 +2410,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>671</v>
+        <v>1000</v>
       </c>
       <c r="D27" s="7">
-        <v>725669</v>
+        <v>919480</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
-        <v>1040</v>
+        <v>1551</v>
       </c>
       <c r="I27" s="7">
-        <v>870697</v>
+        <v>1084138</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
-        <v>1711</v>
+        <v>2551</v>
       </c>
       <c r="N27" s="7">
-        <v>1596366</v>
+        <v>2003618</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D28" s="7">
-        <v>3323</v>
+        <v>12056</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H28" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I28" s="7">
-        <v>5181</v>
+        <v>11948</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="M28" s="7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N28" s="7">
-        <v>8504</v>
+        <v>24004</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D29" s="7">
-        <v>14469</v>
+        <v>37186</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I29" s="7">
-        <v>6502</v>
+        <v>19952</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M29" s="7">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="N29" s="7">
-        <v>20971</v>
+        <v>57137</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="D30" s="7">
-        <v>53557</v>
+        <v>184619</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="I30" s="7">
-        <v>75884</v>
+        <v>152932</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
-        <v>137</v>
+        <v>410</v>
       </c>
       <c r="N30" s="7">
-        <v>129441</v>
+        <v>337550</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>172</v>
+        <v>729</v>
       </c>
       <c r="D31" s="7">
-        <v>163365</v>
+        <v>685652</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
-        <v>284</v>
+        <v>1138</v>
       </c>
       <c r="I31" s="7">
-        <v>221262</v>
+        <v>731326</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
-        <v>456</v>
+        <v>1867</v>
       </c>
       <c r="N31" s="7">
-        <v>384627</v>
+        <v>1416978</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
-        <v>763</v>
+        <v>2384</v>
       </c>
       <c r="D32" s="7">
-        <v>723151</v>
+        <v>2514931</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
-        <v>1164</v>
+        <v>3918</v>
       </c>
       <c r="I32" s="7">
-        <v>829969</v>
+        <v>2722349</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M32" s="7">
-        <v>1927</v>
+        <v>6302</v>
       </c>
       <c r="N32" s="7">
-        <v>1553120</v>
+        <v>5237280</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,370 +2718,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1000</v>
+        <v>3350</v>
       </c>
       <c r="D33" s="7">
-        <v>957866</v>
+        <v>3434444</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
-        <v>1551</v>
+        <v>5329</v>
       </c>
       <c r="I33" s="7">
-        <v>1138797</v>
+        <v>3638506</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
-        <v>2551</v>
+        <v>8679</v>
       </c>
       <c r="N33" s="7">
-        <v>2096663</v>
+        <v>7072950</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>11</v>
-      </c>
-      <c r="D34" s="7">
-        <v>12031</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H34" s="7">
-        <v>16</v>
-      </c>
-      <c r="I34" s="7">
-        <v>12767</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M34" s="7">
-        <v>27</v>
-      </c>
-      <c r="N34" s="7">
-        <v>24798</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>43</v>
-      </c>
-      <c r="D35" s="7">
-        <v>38945</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H35" s="7">
-        <v>30</v>
-      </c>
-      <c r="I35" s="7">
-        <v>21977</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M35" s="7">
-        <v>73</v>
-      </c>
-      <c r="N35" s="7">
-        <v>60922</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="A34" t="s">
         <v>221</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="7">
-        <v>183</v>
-      </c>
-      <c r="D36" s="7">
-        <v>195992</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H36" s="7">
-        <v>227</v>
-      </c>
-      <c r="I36" s="7">
-        <v>168934</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M36" s="7">
-        <v>410</v>
-      </c>
-      <c r="N36" s="7">
-        <v>364925</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="7">
-        <v>729</v>
-      </c>
-      <c r="D37" s="7">
-        <v>726527</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1138</v>
-      </c>
-      <c r="I37" s="7">
-        <v>749876</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1867</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1476403</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="7">
-        <v>2384</v>
-      </c>
-      <c r="D38" s="7">
-        <v>2385155</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H38" s="7">
-        <v>3918</v>
-      </c>
-      <c r="I38" s="7">
-        <v>2828922</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M38" s="7">
-        <v>6302</v>
-      </c>
-      <c r="N38" s="7">
-        <v>5214077</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3350</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3358650</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="7">
-        <v>5329</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3782476</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M39" s="7">
-        <v>8679</v>
-      </c>
-      <c r="N39" s="7">
-        <v>7141126</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>249</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
